--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Sun Jan  2 23:26:24 2022</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Mon Jan  3 00:23:55 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -509,6 +514,11 @@
           <t>0.0134 USD</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.0134 USD</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -549,6 +559,11 @@
           <t>0.0119 EUR</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.0119 EUR</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -589,6 +604,11 @@
           <t>1.5479 JPY</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.5479 JPY</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -629,6 +649,11 @@
           <t>0.0232 BGN</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.0232 BGN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -669,6 +694,11 @@
           <t>0.0185 AUD</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.0185 AUD</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -709,6 +739,11 @@
           <t>0.0749 BRL</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.0749 BRL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -749,6 +784,11 @@
           <t>0.0171 CAD</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.0171 CAD</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -789,6 +829,11 @@
           <t>191.1499 IDR</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>191.1499 IDR</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -829,6 +874,11 @@
           <t>0.0560 MYR</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.0560 MYR</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -865,6 +915,11 @@
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>0.0197 NZD</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>0.0197 NZD</t>
         </is>
